--- a/E2Extract.xlsx
+++ b/E2Extract.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="1" r:id="rId1"/>
     <sheet name="sql" sheetId="2" r:id="rId2"/>
+    <sheet name="发盘" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="323">
   <si>
     <t>C:\Users\868379\Projects\EMMA2\Source Code\EMMA_2008\E2Extract\forms\frmBillingTape.frm</t>
   </si>
@@ -74,7 +75,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +105,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -152,7 +153,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,7 +168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -198,7 +199,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,7 +253,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,7 +263,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +281,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -290,7 +291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,7 +309,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -318,7 +319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +334,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,7 +359,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -416,7 +417,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +484,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -511,7 +512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -586,7 +587,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,7 +597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,7 +612,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,7 +632,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,7 +642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +673,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +714,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,7 +729,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,7 +739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,7 +749,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -758,7 +759,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -773,7 +774,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,7 +784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -798,7 +799,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,7 +809,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +824,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -843,7 +844,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -868,7 +869,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -878,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,7 +895,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -933,7 +934,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,7 +944,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -958,7 +959,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -976,7 +977,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,7 +992,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1001,7 +1002,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1031,7 +1032,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1041,7 +1042,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,23 +1055,896 @@
   <si>
     <t>初期化</t>
   </si>
+  <si>
+    <t>Public Function CreatingBillingTape(ByVal BillingOrgCd As String, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    ByVal TransactionNo As Long, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    ByVal ExtractDefinition As Long, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    ByVal TargetDir As String, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Optional ByVal xform As Form, _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    Optional ByVal lInterMediaryID As Long = -1) As Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oQResults As New QueryResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oLayDef As New LayoutDefs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oLayRec As New LayoutRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oRec As ADODB.Recordset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oQResult As QueryResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oQDetail As QueryResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sCondition As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sSPCondition As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sFileName As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sExcel As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim oWriter As New LayoutWriter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const GEN_RETRIVEDEF = "Retrieving the Billing Tape Query Definition and Layout..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const GEN_RETRIEVEREC = "Processing the records to be written..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Const GEN_WRITERECORDS = "Writing the required Billing Tape Files..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    On Error Resume Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sCondition = "A.BILLING_ORG_CD='" &amp; BillingOrgCd &amp; "' AND A.BILLING_TRANS_NO = " &amp; CStr(TransactionNo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sSPCondition = " @BILLING_ORG_CD='" &amp; BillingOrgCd &amp; "', @BILLING_TRANS_NO=" &amp; CStr(TransactionNo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PHD200057519.Begin 2006/03/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sGSF_DiskNo = CStr(TransactionNo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'PHD200057519.End 2006/03/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeStatus GEN_RETRIVEDEF, Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CreatingBillingTape = False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oLayDef.Database = OpenExtractDefinition()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oLayRec.Database = OpenExtractDefinition()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    With oWriter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Set .Database = OpenExtractDefinition()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Directory = TargetDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .LayoutID = ExtractDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    End With</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox oLayRec.Status, vbCritical, "Processing Error"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GoTo EXIT_FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If Len(Trim(oLayDef.ExcelTemplate)) &gt; 0 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sExcel = Trim(App.Path) &amp; "\MDB\" &amp; Trim(oLayDef.ExcelTemplate) &amp; ".XLS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sExcel = gsExcelTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '---------------------------- create file name (static or function generated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If oLayDef.AsFunction Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         If Len(oLayDef.FileName) &gt; 0 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           sFileName = FunctionCaller(oLayDef.FileName)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sFileName = oLayDef.FileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '--------------- just making sure that the function or the name stored in mdb is ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If Len(sFileName) = 0 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sFileName = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '------------------------------------ load up the collection --------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'currently assume 1 detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    With oRec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .MoveFirst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Do While Not .EOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Set oQResult = oQResults.Add(.Fields("LayRecID").value, .Fields("Seq").value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DoEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If oQResult Is Nothing Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                GoTo EXIT_FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                DoEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Set oQDetail = oQResults(.Fields("Seq").value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .MoveNext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Set oQResult = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DoEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '-------------- PREPARE DETAIL QUERY FOR AGGREGATE FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeStatus GEN_RETRIEVEREC, Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    With oQDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        If lInterMediaryID &gt; 0 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .IgnoreIntermediary = False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .IgnoreIntermediary = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If .NoRecords Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                CreatingBillingTape = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MsgBox .Status, vbCritical, "Processing Error"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            GoTo EXIT_FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '-------------- PREPARE OTHER RECORD TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For Each oQResult In oQResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ChangeStatus GEN_RETRIEVEREC &amp; ".", Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        With oQResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If Len(.DetailRecordType) = 0 Or .DetailRecordType &lt;&gt; "Detail" Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Set .UseDetail = oQDetail.OutputRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ChangeStatus GEN_RETRIEVEREC &amp; "..", Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    MsgBox .Status, vbCritical, "Processing Error"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    GoTo EXIT_FUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        End With</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ChangeStatus GEN_RETRIEVEREC, Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Set oQResult = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeStatus GEN_WRITERECORDS, Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Set .QueryResults = oQResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Exit Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox "The output files can be seen in the following directories: " &amp; vbCrLf &amp; oWriter.OutputDirectoryList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CreatingBillingTape = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If lInterMediaryID &gt; 0 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ChangeStatus "Processing Intermediary records...", Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Call CommitIntermediary(lInterMediaryID, oQDetail.IntermediaryRecords, BillingOrgCd, TransactionNo)</t>
+  </si>
+  <si>
+    <t>EXIT_FUNCTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    On Error GoTo 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oQResult = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oQDetail = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oRec = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oLayRec = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oLayDef = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set oQResults = Nothing</t>
+  </si>
+  <si>
+    <t>End Function</t>
+  </si>
+  <si>
+    <t>Proccess按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    sCur = Trim(Mid(Me.cmbBillOrg.Text, 301, 3))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sBillOrg = Trim(Left(Me.cmbBillOrg.Text, 7))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iBillNo = CLng(Trim(Left(Me.cmbTransactionNo.Text, 300)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iExtractDef = CLng(Trim(Mid(Me.cmbExtractDef.Text, 301)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sDir = Trim(Me.txtDir.Text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox ERROR_NO_BILLTAPE, vbCritical, "Tape not created!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ChangeStatus ERROR_NO_TARGET_DIR, Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox BILLTAPE_CREATED, vbInformation, "Tape Created!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Call FixScreen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    If Not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreatingBillingTape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sBillOrg, iBillNo, iExtractDef, sDir, frmDataExtract, lInterMed) Then</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发盘处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Summary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Call </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UpdateBillSummary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sBillOrg, iBillNo, "Multiple File Name", sCur)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Projects\EMMA_2008\E2Extract\Codes\StartUp.bas</t>
+  </si>
+  <si>
+    <t>Public Function OpenExtractDefinition() As CSDdB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim bOpen As Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set OpenExtractDefinition = New CSDdB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    With OpenExtractDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '.DSN = MDB_FILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .UserID = "admin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Upd By LiXia ITSR012416(VeraCode Source Scan-Medium) 2018/04/16 Start</t>
+  </si>
+  <si>
+    <t>'        .Password = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dim strOutString As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Password = strOutString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Upd By LiXia ITSR012416(VeraCode Source Scan-Medium) 2018/04/16 End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        bOpen = .Connect(CSD_MSJET, False)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If Not bOpen Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Set OpenExtractDefinition = Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CopyRights = App.LegalTrademarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WarningText = App.LegalCopyright</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Set oQResults.Database = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OpenExtractDefinition()</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Projects\EMMA_2008\E2Extract\Codes\GlobalFunctions.bas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim ip As Integer, iq As Integer, in1 As Integer, iz As Integer, ie As Integer, id As Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim iCipher As Integer, iPlain As Integer, dCipher As Double, dPlain As Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim sChar As String, sNewChar As String, sTemp As String, i As Integer, Index As Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fncGEnAndDeCipher = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ip = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iq = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    in1 = ip * iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iz = (ip - 1) * (iq - 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ie = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sPsw = UCase$(sPsw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    For Index = 1 To Len(Trim(sPsw))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sChar = Mid(sPsw, Index, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If Asc(sChar) &gt; 47 And Asc(sChar) &lt; 58 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                i = Asc(sChar) - 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ElseIf Asc(sChar) &gt; 64 And Asc(sChar) &lt; 91 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                i = Asc(sChar) - 65 + 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            iCipher = (i ^ ie) - Int((i ^ ie) / in1) * in1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If iCipher &gt;= 0 And iCipher &lt; 9 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sNewChar = Chr(iCipher + 49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ElseIf iCipher &gt; 8 And iCipher &lt; 35 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sNewChar = Chr(iCipher + 65 - 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If i = -1 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sNewChar = "5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ElseIf Asc(sChar) &gt;= 64 And Asc(sChar) &lt; 91 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                i = Asc(sChar) - 65 + 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            iCipher = (i ^ id) - Int((i ^ id) / in1) * in1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sNewChar = Chr(iCipher + 65 - 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            If i = 35 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                sNewChar = "0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sTemp = sTemp &amp; sNewChar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Next Index</t>
+  </si>
+  <si>
+    <t>'PHD200047503.End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fncGEnAndDeCipher = sTemp</t>
+  </si>
+  <si>
+    <t>Public Function fncGEnAndDeCipher(sPsw As String, iFlag As Integer) As String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        If iFlag = 0 Then             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' encryption</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Else                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' decryption</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Call subTransferString(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIMA_INIT_VALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, strOutString)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        .Database = App.Path &amp; "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\MDB\ExtracDb.mdb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" &amp; ";</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jet OLEDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Database Password=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fncGEnAndDeCipher(App.FileDescription, 0)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到MDB的数据库连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码加密处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Set oRec = oLayRec.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RetrieveRecords(ExtractDefinition)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    If Not oLayDef.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RetrieveLayout(ExtractDefinition)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Then</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            If .Fields("Type").value = "D" Then         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'save the detail</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        If Not .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PrepareOutputRecordset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MakeDBCon(), sCondition, xform, False, sSPCondition) Then</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                If Not .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PrepareOutputRecordset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MakeDBCon(), sCondition, xform) Then</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        If Not .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WriteFiles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(BillingOrgCd, TargetDir, sExcel, sFileName) Then</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1078,8 +1952,32 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1189,7 +2087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1215,9 +2113,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1394,7 +2294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1429,7 +2329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1606,7 +2506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1614,15 +2514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T131"/>
+  <dimension ref="A2:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:R137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1643,17 +2543,17 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +2577,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +2599,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +2621,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1741,7 +2641,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1763,7 +2663,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +2685,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +2707,7 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -1829,7 +2729,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +2751,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +2773,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +2795,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +2817,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +2839,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +2861,7 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +2883,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>19</v>
       </c>
@@ -2005,7 +2905,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>20</v>
       </c>
@@ -2027,7 +2927,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -2049,7 +2949,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2971,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2993,7 @@
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>37</v>
       </c>
@@ -2109,7 +3009,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
         <v>38</v>
       </c>
@@ -2125,7 +3025,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2139,7 +3039,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +3055,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -2171,7 +3071,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>51</v>
       </c>
@@ -2187,7 +3087,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +3101,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>42</v>
       </c>
@@ -2215,7 +3115,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2231,7 +3131,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>43</v>
       </c>
@@ -2245,7 +3145,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>85</v>
       </c>
@@ -2261,7 +3161,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>44</v>
       </c>
@@ -2275,7 +3175,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>45</v>
       </c>
@@ -2289,7 +3189,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="10"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -2307,7 +3207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -2322,7 +3222,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
@@ -2341,7 +3241,7 @@
       </c>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -2356,7 +3256,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -2371,7 +3271,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -2386,7 +3286,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
@@ -2401,7 +3301,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
@@ -2416,7 +3316,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -2434,7 +3334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -2449,7 +3349,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
@@ -2469,7 +3369,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
@@ -2487,7 +3387,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -2502,7 +3402,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -2517,7 +3417,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +3432,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -2556,7 +3456,7 @@
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -2576,7 +3476,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>109</v>
       </c>
@@ -2601,7 +3501,7 @@
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>111</v>
       </c>
@@ -2621,7 +3521,7 @@
       <c r="O89" s="6"/>
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>110</v>
       </c>
@@ -2641,7 +3541,7 @@
       <c r="O90" s="6"/>
       <c r="P90" s="7"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
@@ -2661,7 +3561,7 @@
       <c r="O91" s="6"/>
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>73</v>
       </c>
@@ -2681,7 +3581,7 @@
       <c r="O92" s="6"/>
       <c r="P92" s="7"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>74</v>
       </c>
@@ -2701,7 +3601,7 @@
       <c r="O93" s="6"/>
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>91</v>
       </c>
@@ -2721,7 +3621,7 @@
       <c r="O94" s="6"/>
       <c r="P94" s="7"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>112</v>
       </c>
@@ -2746,7 +3646,7 @@
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>73</v>
       </c>
@@ -2766,7 +3666,7 @@
       <c r="O96" s="6"/>
       <c r="P96" s="7"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2784,7 +3684,7 @@
       <c r="O97" s="6"/>
       <c r="P97" s="7"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>92</v>
       </c>
@@ -2804,7 +3704,7 @@
       <c r="O98" s="6"/>
       <c r="P98" s="7"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>113</v>
       </c>
@@ -2824,7 +3724,7 @@
       <c r="O99" s="6"/>
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>73</v>
       </c>
@@ -2844,7 +3744,7 @@
       <c r="O100" s="9"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
@@ -2864,7 +3764,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="4"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>93</v>
       </c>
@@ -2884,7 +3784,7 @@
       <c r="O104" s="6"/>
       <c r="P104" s="7"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>94</v>
       </c>
@@ -2904,7 +3804,7 @@
       <c r="O105" s="6"/>
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>102</v>
       </c>
@@ -2926,7 +3826,7 @@
       <c r="O106" s="6"/>
       <c r="P106" s="7"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +3846,7 @@
       <c r="O107" s="6"/>
       <c r="P107" s="7"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
@@ -2966,7 +3866,7 @@
       <c r="O108" s="6"/>
       <c r="P108" s="7"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -2986,7 +3886,7 @@
       <c r="O109" s="6"/>
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
@@ -3006,7 +3906,7 @@
       <c r="O110" s="6"/>
       <c r="P110" s="7"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3926,7 @@
       <c r="O111" s="6"/>
       <c r="P111" s="7"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3044,7 +3944,7 @@
       <c r="O112" s="6"/>
       <c r="P112" s="7"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>99</v>
       </c>
@@ -3063,7 +3963,7 @@
       <c r="O113" s="6"/>
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>106</v>
       </c>
@@ -3085,7 +3985,7 @@
       <c r="O114" s="6"/>
       <c r="P114" s="7"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>6</v>
       </c>
@@ -3105,7 +4005,7 @@
       <c r="O115" s="6"/>
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>100</v>
       </c>
@@ -3124,7 +4024,7 @@
       <c r="O116" s="6"/>
       <c r="P116" s="7"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>107</v>
       </c>
@@ -3146,7 +4046,7 @@
       <c r="O117" s="6"/>
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>6</v>
       </c>
@@ -3166,7 +4066,7 @@
       <c r="O118" s="9"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>135</v>
       </c>
@@ -3188,7 +4088,7 @@
       <c r="Q122" s="11"/>
       <c r="R122" s="11"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -3208,7 +4108,7 @@
       <c r="O124" s="3"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>132</v>
       </c>
@@ -3228,7 +4128,7 @@
       <c r="O125" s="6"/>
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3246,7 +4146,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="7"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>133</v>
       </c>
@@ -3266,7 +4166,7 @@
       <c r="O127" s="6"/>
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>128</v>
       </c>
@@ -3288,7 +4188,7 @@
       <c r="O128" s="6"/>
       <c r="P128" s="7"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>129</v>
       </c>
@@ -3308,7 +4208,7 @@
       <c r="O129" s="6"/>
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>130</v>
       </c>
@@ -3328,7 +4228,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="7"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>6</v>
       </c>
@@ -3348,7 +4248,312 @@
       <c r="O131" s="9"/>
       <c r="P131" s="10"/>
     </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="4"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="7"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="7"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="7"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="7"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="7"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="7"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="7"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="7"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="7"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="7"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="7"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="7"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="10"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3363,15 +4568,15 @@
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3381,7 +4586,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3391,7 +4596,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -3401,7 +4606,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -3411,7 +4616,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3421,7 +4626,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -3431,13 +4636,13 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -3450,7 +4655,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -3463,7 +4668,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -3476,7 +4681,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3484,7 +4689,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -3501,7 +4706,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +4723,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3535,7 +4740,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3552,7 +4757,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3569,7 +4774,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -3586,12 +4791,12 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -3608,7 +4813,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +4830,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -3644,7 +4849,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -3663,7 +4868,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -3682,7 +4887,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
@@ -3699,7 +4904,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -3716,7 +4921,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
@@ -3735,7 +4940,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -3752,7 +4957,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>65</v>
       </c>
@@ -3769,7 +4974,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -3786,7 +4991,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -3803,7 +5008,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>64</v>
       </c>
@@ -3820,7 +5025,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>123</v>
       </c>
@@ -3837,7 +5042,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
@@ -3854,7 +5059,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>117</v>
       </c>
@@ -3871,7 +5076,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>118</v>
       </c>
@@ -3888,7 +5093,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>124</v>
       </c>
@@ -3905,7 +5110,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
@@ -3922,7 +5127,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -3939,7 +5144,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
@@ -3956,7 +5161,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>120</v>
       </c>
@@ -3973,7 +5178,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3990,7 +5195,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>127</v>
       </c>
@@ -4009,7 +5214,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>126</v>
       </c>
@@ -4027,7 +5232,4120 @@
       <c r="M52" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R259"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="N267" sqref="N267"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="7"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="7"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="7"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="7"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="7"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="7"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="7"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="7"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="7"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="7"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="7"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="7"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="7"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="7"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="7"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="7"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="7"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="7"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="7"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="7"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="7"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="7"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="7"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="7"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="7"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="7"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="7"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="7"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="7"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="7"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="7"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="7"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="7"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="7"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="7"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="7"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="7"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="7"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="7"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="7"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="7"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="7"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="7"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="7"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="7"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="7"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="7"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="7"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="4"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="7"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="7"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="7"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="7"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="7"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="7"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="7"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="7"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="7"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="7"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="7"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="7"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="10"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="4"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="7"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="7"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="7"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="7"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="7"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="7"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="7"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="7"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="7"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="7"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="7"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="7"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="7"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="7"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="7"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="7"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="7"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="7"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="7"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="7"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="7"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="7"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="7"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="7"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="7"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="7"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="7"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="7"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="7"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="7"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="7"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="7"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="7"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="7"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="7"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="7"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="7"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="7"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="7"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="7"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="7"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="7"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="7"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="7"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="7"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="7"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="7"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="7"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="7"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="7"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="7"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="7"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="5"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="7"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="7"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="5"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="7"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="7"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="5"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="7"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+      <c r="L259" s="9"/>
+      <c r="M259" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>